--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_323__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_323__Reeval_LHS_Modell_1.2.xlsx
@@ -5975,10 +5975,10 @@
                   <c:v>56.61121368408203</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>46.02025985717773</c:v>
+                  <c:v>46.020263671875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58.45610427856445</c:v>
+                  <c:v>58.45609664916992</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>50.16948699951172</c:v>
@@ -5990,7 +5990,7 @@
                   <c:v>47.68070220947266</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>55.16957092285156</c:v>
+                  <c:v>55.16957473754883</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>40.10012054443359</c:v>
@@ -6005,13 +6005,13 @@
                   <c:v>52.28573989868164</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.18935394287109</c:v>
+                  <c:v>43.18935775756836</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>50.02729797363281</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48.45813751220703</c:v>
+                  <c:v>48.4581413269043</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>50.52751922607422</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>49.04838180541992</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43.03037643432617</c:v>
+                  <c:v>43.03037261962891</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>57.374755859375</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>52.99620056152344</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>37.88919830322266</c:v>
+                  <c:v>37.88919448852539</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>57.6162109375</c:v>
@@ -6062,7 +6062,7 @@
                   <c:v>56.65750885009766</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>53.40416717529297</c:v>
+                  <c:v>53.4041748046875</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>46.53082656860352</c:v>
@@ -6080,7 +6080,7 @@
                   <c:v>57.11987686157227</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>47.59791564941406</c:v>
+                  <c:v>47.5979118347168</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>38.74785995483398</c:v>
@@ -6125,7 +6125,7 @@
                   <c:v>50.89083099365234</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>46.92977523803711</c:v>
+                  <c:v>46.92977142333984</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>59.97886276245117</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>51.74711608886719</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>40.73678207397461</c:v>
+                  <c:v>40.73677825927734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>46.02025985717773</v>
+        <v>46.020263671875</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>58.45610427856445</v>
+        <v>58.45609664916992</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>94.85250000000001</v>
       </c>
       <c r="F41">
-        <v>55.16957092285156</v>
+        <v>55.16957473754883</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>43.18935394287109</v>
+        <v>43.18935775756836</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>48.45813751220703</v>
+        <v>48.4581413269043</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>43.03037643432617</v>
+        <v>43.03037261962891</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>37.88919830322266</v>
+        <v>37.88919448852539</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>53.40416717529297</v>
+        <v>53.4041748046875</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>94.41</v>
       </c>
       <c r="F71">
-        <v>47.59791564941406</v>
+        <v>47.5979118347168</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>46.92977523803711</v>
+        <v>46.92977142333984</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>40.73678207397461</v>
+        <v>40.73677825927734</v>
       </c>
     </row>
     <row r="100" spans="1:6">
